--- a/2019-01-12 15-08-15_plot_stats/convergence_speed.xlsx
+++ b/2019-01-12 15-08-15_plot_stats/convergence_speed.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\GitHub\Blockchain-Simulator\2019-01-12 15-08-15_plot_stats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC953866-91D9-48E2-83BE-265C60456B66}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9A79A6A-9A53-426A-A9F9-ED57E51FEC43}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="11595"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="11595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="convergence_speed" sheetId="1" r:id="rId1"/>
@@ -115,7 +115,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1446,6 +1446,1912 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Number of nodes vs Convergence speed</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>convergence_speed!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> node20_winners6_RT_RW_RSC_RC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>convergence_speed!$A$2:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0-600</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>600-1200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1200-1800</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1800-2400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2400-3000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3000-3600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3600-4200</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4200-4800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4800-5400</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5400-6000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6000-6600</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6600-7200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7200-7800</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7800-8400</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>convergence_speed!$C$2:$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>90918.333333333299</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>93174.666666666599</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>103935</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>120117.33333333299</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>135033.33333333299</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>157053.33333333299</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>200387.83333333299</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>260464</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>272111</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>286304.83333333302</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>405514.16666666599</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>576877</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>572346.83333333302</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>636899.66666666605</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4054-49F5-8C50-13A36DE285BF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>convergence_speed!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> node30_winners6_RT_RW_RSC_RC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>convergence_speed!$A$2:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0-600</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>600-1200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1200-1800</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1800-2400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2400-3000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3000-3600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3600-4200</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4200-4800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4800-5400</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5400-6000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6000-6600</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6600-7200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7200-7800</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7800-8400</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>convergence_speed!$F$2:$F$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>91723.666666666599</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>94376</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>106871.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>117231.33333333299</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>144974.33333333299</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>167741.66666666599</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>205695.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>219048.66666666599</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>260343.66666666599</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>300945.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>383677.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>432096.83333333302</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>502813.33333333302</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>555860.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4054-49F5-8C50-13A36DE285BF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>convergence_speed!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> node40_winners6_RT_RW_RSC_RC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>convergence_speed!$A$2:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0-600</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>600-1200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1200-1800</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1800-2400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2400-3000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3000-3600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3600-4200</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4200-4800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4800-5400</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5400-6000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6000-6600</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6600-7200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7200-7800</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7800-8400</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>convergence_speed!$I$2:$I$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>91306.833333333299</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>93124.166666666599</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>103560.166666666</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>121201.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>124669.666666666</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>154972.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>199069.66666666599</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>240167.83333333299</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>232856.33333333299</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>340502</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>349801</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>451423.66666666599</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>549986.66666666605</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>561623.33333333302</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4054-49F5-8C50-13A36DE285BF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>convergence_speed!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> node50_winners6_RT_RW_RSC_RC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>convergence_speed!$A$2:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0-600</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>600-1200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1200-1800</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1800-2400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2400-3000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3000-3600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3600-4200</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4200-4800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4800-5400</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5400-6000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6000-6600</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6600-7200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7200-7800</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7800-8400</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>convergence_speed!$L$2:$L$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>91129.333333333299</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>92866.166666666599</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>99436.166666666599</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>116865</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>129304.666666666</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>151549.66666666599</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>184874.83333333299</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>238726.16666666599</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>316109.16666666599</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>282756.16666666599</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>330099.66666666599</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>385278.83333333302</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>467700.33333333302</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>696945.16666666605</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-4054-49F5-8C50-13A36DE285BF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>convergence_speed!$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> node60_winners6_RT_RW_RSC_RC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>convergence_speed!$A$2:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0-600</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>600-1200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1200-1800</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1800-2400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2400-3000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3000-3600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3600-4200</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4200-4800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4800-5400</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5400-6000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6000-6600</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6600-7200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7200-7800</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7800-8400</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>convergence_speed!$O$2:$O$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>90883.166666666599</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>93197.166666666599</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>99719.333333333299</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>115219.666666666</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>125404.666666666</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>165624.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>181255.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>219901</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>223795.83333333299</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>276339.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>304213.16666666599</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>469922.33333333302</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>482160.16666666599</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>483257.66666666599</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-4054-49F5-8C50-13A36DE285BF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="2134572768"/>
+        <c:axId val="179232704"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2134572768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="179232704"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="179232704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2134572768"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Number of nodes vs Convergence speed</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>convergence_speed!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> node20_winners9_RT_RW_RSC_RC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>convergence_speed!$A$2:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0-600</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>600-1200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1200-1800</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1800-2400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2400-3000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3000-3600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3600-4200</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4200-4800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4800-5400</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5400-6000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6000-6600</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6600-7200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7200-7800</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7800-8400</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>convergence_speed!$D$2:$D$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>91332.166666666599</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>94327.833333333299</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>105393.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>116751.666666666</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>142925.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>159252.16666666599</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>213140.16666666599</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>230787.16666666599</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>278578.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>364229.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>444302.16666666599</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>524089.83333333302</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>563954.16666666605</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>666316.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-35BA-48DF-8758-A263FA8CDE82}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>convergence_speed!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> node30_winners9_RT_RW_RSC_RC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>convergence_speed!$A$2:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0-600</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>600-1200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1200-1800</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1800-2400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2400-3000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3000-3600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3600-4200</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4200-4800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4800-5400</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5400-6000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6000-6600</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6600-7200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7200-7800</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7800-8400</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>convergence_speed!$G$2:$G$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>91333.333333333299</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>93916.333333333299</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>105692.83333333299</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>116331.666666666</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>129972.33333333299</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>159410.66666666599</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>183311</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>212373.66666666599</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>297318.83333333302</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>336358.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>370941.16666666599</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>458757.16666666599</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>602301.66666666605</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>633741.66666666605</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-35BA-48DF-8758-A263FA8CDE82}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>convergence_speed!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> node40_winners9_RT_RW_RSC_RC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>convergence_speed!$A$2:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0-600</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>600-1200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1200-1800</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1800-2400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2400-3000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3000-3600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3600-4200</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4200-4800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4800-5400</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5400-6000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6000-6600</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6600-7200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7200-7800</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7800-8400</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>convergence_speed!$J$2:$J$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>91524.333333333299</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>93324.833333333299</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>104778.83333333299</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>114970.666666666</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>133809.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>146119.83333333299</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>190168.16666666599</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>225076</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>252824</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>281687.66666666599</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>310139.66666666599</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>372706.83333333302</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>576089.83333333302</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>537951.66666666605</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-35BA-48DF-8758-A263FA8CDE82}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>convergence_speed!$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> node50_winners9_RT_RW_RSC_RC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>convergence_speed!$A$2:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0-600</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>600-1200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1200-1800</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1800-2400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2400-3000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3000-3600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3600-4200</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4200-4800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4800-5400</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5400-6000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6000-6600</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6600-7200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7200-7800</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7800-8400</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>convergence_speed!$M$2:$M$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>91317.666666666599</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>93432.333333333299</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>104108.666666666</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>114579.166666666</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>131863.16666666599</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>162820</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>176236.33333333299</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>223889.33333333299</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>275835.16666666599</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>276087.83333333302</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>346861</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>385321.66666666599</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>476394.33333333302</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>563830.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-35BA-48DF-8758-A263FA8CDE82}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>convergence_speed!$P$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> node60_winners9_RT_RW_RSC_RC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>convergence_speed!$A$2:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0-600</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>600-1200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1200-1800</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1800-2400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2400-3000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3000-3600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3600-4200</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4200-4800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4800-5400</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5400-6000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6000-6600</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6600-7200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7200-7800</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7800-8400</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>convergence_speed!$P$2:$P$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>91355.666666666599</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>93929.333333333299</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>98965.833333333299</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>111560.666666666</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>132116.33333333299</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>152997.33333333299</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>202295.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>240819</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>216959</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>256594</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>364343.16666666599</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>361275.16666666599</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>436346.16666666599</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>619639.33333333302</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-35BA-48DF-8758-A263FA8CDE82}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="175525280"/>
+        <c:axId val="64380320"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="175525280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="64380320"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="64380320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="175525280"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -5199,16 +7105,13 @@
               <a:buFontTx/>
               <a:buNone/>
               <a:tabLst/>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr>
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:sysClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="zh-CN" altLang="en-US"/>
@@ -7088,7 +8991,1026 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Number of nodes vs Convergence speed</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>convergence_speed!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> node20_winners3_RT_RW_RSC_RC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>convergence_speed!$A$2:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0-600</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>600-1200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1200-1800</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1800-2400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2400-3000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3000-3600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3600-4200</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4200-4800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4800-5400</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5400-6000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6000-6600</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6600-7200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7200-7800</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7800-8400</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>convergence_speed!$B$2:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>91383.285714285696</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>93635.285714285696</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>101976.428571428</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>117692.857142857</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>137636.428571428</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>169776.142857142</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>193643.28571428501</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>227566.85714285701</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>276432.85714285698</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>354917.57142857101</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>431720.71428571403</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>498635.28571428498</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>513834.71428571403</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>698958.14285714203</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-ACC6-47C6-A311-98869AA03E3A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>convergence_speed!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> node30_winners3_RT_RW_RSC_RC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>convergence_speed!$A$2:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0-600</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>600-1200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1200-1800</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1800-2400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2400-3000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3000-3600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3600-4200</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4200-4800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4800-5400</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5400-6000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6000-6600</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6600-7200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7200-7800</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7800-8400</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>convergence_speed!$E$2:$E$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>91437.142857142797</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>94794.857142857101</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>104383.285714285</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>120213.571428571</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>141983.85714285701</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>162961.142857142</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>194729.428571428</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>223367</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>261084.85714285701</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>312858</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>365683.28571428498</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>416557.85714285698</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>537172.57142857101</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>583010.57142857101</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-ACC6-47C6-A311-98869AA03E3A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>convergence_speed!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> node40_winners3_RT_RW_RSC_RC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>convergence_speed!$A$2:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0-600</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>600-1200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1200-1800</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1800-2400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2400-3000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3000-3600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3600-4200</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4200-4800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4800-5400</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5400-6000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6000-6600</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6600-7200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7200-7800</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7800-8400</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>convergence_speed!$H$2:$H$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>91167.833333333299</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>92137.166666666599</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>101497</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>117276.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>145962</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>161187.66666666599</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>197250.83333333299</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>225098.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>290567.33333333302</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>294662.66666666599</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>391628.16666666599</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>426630.83333333302</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>543117.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>583802.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-ACC6-47C6-A311-98869AA03E3A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>convergence_speed!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> node50_winners3_RT_RW_RSC_RC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>convergence_speed!$A$2:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0-600</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>600-1200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1200-1800</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1800-2400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2400-3000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3000-3600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3600-4200</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4200-4800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4800-5400</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5400-6000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6000-6600</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6600-7200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7200-7800</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7800-8400</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>convergence_speed!$K$2:$K$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>90909.833333333299</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>92620.833333333299</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>116667.166666666</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>123926.33333333299</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>145116</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>153627.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>162320.66666666599</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>204666.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>236969.83333333299</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>332646</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>373391.83333333302</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>446647.83333333302</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>534761</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>669587</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-ACC6-47C6-A311-98869AA03E3A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>convergence_speed!$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> node60_winners3_RT_RW_RSC_RC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>convergence_speed!$A$2:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0-600</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>600-1200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1200-1800</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1800-2400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2400-3000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3000-3600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3600-4200</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4200-4800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4800-5400</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5400-6000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6000-6600</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6600-7200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7200-7800</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7800-8400</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>convergence_speed!$N$2:$N$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>91055.333333333299</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>93281.333333333299</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>115540.666666666</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>129458.83333333299</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>149041.33333333299</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>154326.83333333299</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>179409.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>217271.83333333299</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>245469.33333333299</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>305969.66666666599</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>397977.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>366797.83333333302</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>432986.33333333302</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>610726.16666666605</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-ACC6-47C6-A311-98869AA03E3A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="2134572368"/>
+        <c:axId val="64398624"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2134572368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="64398624"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="64398624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2134572368"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -7408,6 +10330,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -7924,8 +10886,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -8033,11 +10995,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -8048,11 +11005,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -8084,9 +11036,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -8440,8 +11389,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -8549,11 +11498,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -8564,11 +11508,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -8600,9 +11539,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -8956,7 +11892,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9472,7 +12408,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9988,7 +12924,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -10504,7 +13440,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -11020,7 +13956,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -11183,6 +14119,1541 @@
       <a:solidFill>
         <a:schemeClr val="phClr"/>
       </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -11826,6 +16297,114 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>133349</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="图表 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD98591C-4782-452B-9C2D-5CAF77992DC2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="图表 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEF816B6-903D-49CF-BE05-0BE9C2FE0BFB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="图表 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{059DAF86-3577-4519-BCCC-870AA58C3C7A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -12125,11 +16704,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="P1" activeCellId="5" sqref="A1:A1048576 D1:D1048576 G1:G1048576 J1:J1048576 M1:M1048576 P1:P1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
